--- a/ApolloQA/Data/RatingManual/GA/VA00070.InsuranceScoreTierFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00070.InsuranceScoreTierFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.InsuranceScoreTierFactors" sheetId="1" r:id="Ra2bb117dcea44199"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00070.InsuranceScoreTierFactors" sheetId="1" r:id="R207bf01a8b824024"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,170 +12,146 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Insurance Score Tier</x:v>
+        <x:v>Class Code</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Insurance Score Tier Factor</x:v>
+        <x:v>Class Code Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB01</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7500</x:v>
+        <x:v>0.8850</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB02</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7500</x:v>
+        <x:v>0.6650</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB03</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7861</x:v>
+        <x:v>1.3670</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB04</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8114</x:v>
+        <x:v>0.8641</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB05</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8118</x:v>
+        <x:v>0.8229</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB06</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9000</x:v>
+        <x:v>0.9777</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB07</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0200</x:v>
+        <x:v>0.7772</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB08</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0761</x:v>
+        <x:v>0.6477</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB09</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1906</x:v>
+        <x:v>0.6829</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB10</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3300</x:v>
+        <x:v>1.1106</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB11</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3300</x:v>
+        <x:v>1.0191</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB12</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3788</x:v>
+        <x:v>0.9155</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB13</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3788</x:v>
+        <x:v>0.9491</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB14</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3788</x:v>
+        <x:v>1.0217</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB15</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4000</x:v>
+        <x:v>0.9421</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB16</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4000</x:v>
+        <x:v>1.0671</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>AB17</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>ABNA</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>ABNH</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>ABTF</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>0.7069</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
